--- a/xlsx/country_comparison/split_few_mean.xlsx
+++ b/xlsx/country_comparison/split_few_mean.xlsx
@@ -432,34 +432,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>28.8366198550298</v>
+        <v>28.8281643185151</v>
       </c>
       <c r="C2" t="n">
-        <v>28.5421853483488</v>
+        <v>29.3085091994463</v>
       </c>
       <c r="D2" t="n">
-        <v>23.4014769011736</v>
+        <v>25.1634975035249</v>
       </c>
       <c r="E2" t="n">
-        <v>24.6504854368932</v>
+        <v>24.6432113910591</v>
       </c>
       <c r="F2" t="n">
-        <v>27.1688342278746</v>
+        <v>27.0493295278472</v>
       </c>
       <c r="G2" t="n">
-        <v>22.9173704540015</v>
+        <v>22.8806341789421</v>
       </c>
       <c r="H2" t="n">
-        <v>31.504621258706</v>
+        <v>30.5648068352476</v>
       </c>
       <c r="I2" t="n">
-        <v>26.4061836918479</v>
+        <v>24.653855110513</v>
       </c>
       <c r="J2" t="n">
-        <v>27.0306244308346</v>
+        <v>31.4539982025223</v>
       </c>
       <c r="K2" t="n">
-        <v>19.6430756186517</v>
+        <v>22.6218756880398</v>
       </c>
     </row>
     <row r="3">
@@ -467,34 +467,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>17.4955688402017</v>
+        <v>17.708501475319</v>
       </c>
       <c r="C3" t="n">
-        <v>16.3178976363908</v>
+        <v>16.8299976173605</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6906313619506</v>
+        <v>16.6913633875678</v>
       </c>
       <c r="E3" t="n">
-        <v>18.4368932038835</v>
+        <v>18.8583958185898</v>
       </c>
       <c r="F3" t="n">
-        <v>19.160501675763</v>
+        <v>17.6294983933243</v>
       </c>
       <c r="G3" t="n">
-        <v>19.7759959111539</v>
+        <v>19.4119168862556</v>
       </c>
       <c r="H3" t="n">
-        <v>17.5942533119686</v>
+        <v>19.1953181494353</v>
       </c>
       <c r="I3" t="n">
-        <v>15.6861040401847</v>
+        <v>16.7320240724462</v>
       </c>
       <c r="J3" t="n">
-        <v>19.2791263561925</v>
+        <v>19.1510914796288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.2544816728909</v>
+        <v>17.9071497125961</v>
       </c>
     </row>
     <row r="4">
@@ -502,34 +502,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>15.965400088311</v>
+        <v>15.3856383384302</v>
       </c>
       <c r="C4" t="n">
-        <v>17.4581478351093</v>
+        <v>18.2246996133242</v>
       </c>
       <c r="D4" t="n">
-        <v>24.8681179924843</v>
+        <v>22.3926298168034</v>
       </c>
       <c r="E4" t="n">
-        <v>30.1165048543689</v>
+        <v>25.7029096805239</v>
       </c>
       <c r="F4" t="n">
-        <v>18.1838289385622</v>
+        <v>18.429483894829</v>
       </c>
       <c r="G4" t="n">
-        <v>18.4519144035048</v>
+        <v>19.0984453741785</v>
       </c>
       <c r="H4" t="n">
-        <v>14.8526224253801</v>
+        <v>13.9596852302402</v>
       </c>
       <c r="I4" t="n">
-        <v>24.6898974895777</v>
+        <v>24.1294193845953</v>
       </c>
       <c r="J4" t="n">
-        <v>16.5308919416192</v>
+        <v>14.3628166636085</v>
       </c>
       <c r="K4" t="n">
-        <v>24.6701466702899</v>
+        <v>23.0227154960858</v>
       </c>
     </row>
     <row r="5">
@@ -537,34 +537,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0954679282496</v>
+        <v>21.4451230164606</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0413823359671</v>
+        <v>15.4163303957069</v>
       </c>
       <c r="D5" t="n">
-        <v>18.790820243389</v>
+        <v>18.5040080566363</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2621359223301</v>
+        <v>16.8545076789663</v>
       </c>
       <c r="F5" t="n">
-        <v>15.4614195654437</v>
+        <v>17.7368171252981</v>
       </c>
       <c r="G5" t="n">
-        <v>17.4281306307284</v>
+        <v>17.8784360000412</v>
       </c>
       <c r="H5" t="n">
-        <v>16.9623135872111</v>
+        <v>15.227750506986</v>
       </c>
       <c r="I5" t="n">
-        <v>18.1215862601066</v>
+        <v>19.4495652565364</v>
       </c>
       <c r="J5" t="n">
-        <v>20.731116433423</v>
+        <v>16.5194412343168</v>
       </c>
       <c r="K5" t="n">
-        <v>19.9814142065798</v>
+        <v>21.0301245902737</v>
       </c>
     </row>
     <row r="6">
@@ -572,34 +572,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>16.606943288208</v>
+        <v>16.6325728512752</v>
       </c>
       <c r="C6" t="n">
-        <v>20.640386844184</v>
+        <v>20.2204631741621</v>
       </c>
       <c r="D6" t="n">
-        <v>17.2489535010024</v>
+        <v>17.2485012354676</v>
       </c>
       <c r="E6" t="n">
-        <v>11.5339805825243</v>
+        <v>13.9409754308608</v>
       </c>
       <c r="F6" t="n">
-        <v>20.0254155923564</v>
+        <v>19.1548710587013</v>
       </c>
       <c r="G6" t="n">
-        <v>21.4265886006113</v>
+        <v>20.7305675605826</v>
       </c>
       <c r="H6" t="n">
-        <v>19.0861894167343</v>
+        <v>21.0524392780909</v>
       </c>
       <c r="I6" t="n">
-        <v>15.096228518283</v>
+        <v>15.035136175909</v>
       </c>
       <c r="J6" t="n">
-        <v>16.4282408379308</v>
+        <v>18.5126524199236</v>
       </c>
       <c r="K6" t="n">
-        <v>16.4508818315878</v>
+        <v>15.4181345130046</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_few_mean.xlsx
+++ b/xlsx/country_comparison/split_few_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,41 +32,41 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic: Education and Healthcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic: Social welfare programs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic: Reduction in the federal income tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic: Reduction of the deficit</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Education, Healthcare and
 Renewable energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic: Reduction of the deficit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic: Reduction in the income tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic: Social welfare programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic: Education and Healthcare</t>
   </si>
 </sst>
 </file>
@@ -426,180 +432,216 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>28.8281643185151</v>
+        <v>17.4751101420005</v>
       </c>
       <c r="C2" t="n">
-        <v>29.3085091994463</v>
+        <v>18.6743117629875</v>
       </c>
       <c r="D2" t="n">
-        <v>25.1634975035249</v>
+        <v>16.5590664011884</v>
       </c>
       <c r="E2" t="n">
-        <v>24.6432113910591</v>
+        <v>19.0917051990993</v>
       </c>
       <c r="F2" t="n">
-        <v>27.0493295278472</v>
+        <v>19.0337295435415</v>
       </c>
       <c r="G2" t="n">
-        <v>22.8806341789421</v>
+        <v>19.3890282221846</v>
       </c>
       <c r="H2" t="n">
-        <v>30.5648068352476</v>
+        <v>20.5116926033648</v>
       </c>
       <c r="I2" t="n">
-        <v>24.653855110513</v>
+        <v>18.478293378584</v>
       </c>
       <c r="J2" t="n">
-        <v>31.4539982025223</v>
+        <v>16.8268444476372</v>
       </c>
       <c r="K2" t="n">
-        <v>22.6218756880398</v>
+        <v>13.9270974176023</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20.9468538366264</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.2982665049628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>17.708501475319</v>
+        <v>18.6865085699013</v>
       </c>
       <c r="C3" t="n">
-        <v>16.8299976173605</v>
+        <v>17.3252977992075</v>
       </c>
       <c r="D3" t="n">
-        <v>16.6913633875678</v>
+        <v>21.3806766714014</v>
       </c>
       <c r="E3" t="n">
-        <v>18.8583958185898</v>
+        <v>16.0336798307683</v>
       </c>
       <c r="F3" t="n">
-        <v>17.6294983933243</v>
+        <v>17.1291579672651</v>
       </c>
       <c r="G3" t="n">
-        <v>19.4119168862556</v>
+        <v>16.9773983191859</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1953181494353</v>
+        <v>15.5086813202052</v>
       </c>
       <c r="I3" t="n">
-        <v>16.7320240724462</v>
+        <v>16.3493276215342</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1510914796288</v>
+        <v>15.0765547483462</v>
       </c>
       <c r="K3" t="n">
-        <v>17.9071497125961</v>
+        <v>16.9546020186665</v>
+      </c>
+      <c r="L3" t="n">
+        <v>17.8204413278329</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.8572095722504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>15.3856383384302</v>
+        <v>19.5461858933732</v>
       </c>
       <c r="C4" t="n">
-        <v>18.2246996133242</v>
+        <v>17.2225724616136</v>
       </c>
       <c r="D4" t="n">
-        <v>22.3926298168034</v>
+        <v>16.0603466807721</v>
       </c>
       <c r="E4" t="n">
-        <v>25.7029096805239</v>
+        <v>19.4576594912976</v>
       </c>
       <c r="F4" t="n">
-        <v>18.429483894829</v>
+        <v>19.625637342255</v>
       </c>
       <c r="G4" t="n">
-        <v>19.0984453741785</v>
+        <v>18.246527358482</v>
       </c>
       <c r="H4" t="n">
-        <v>13.9596852302402</v>
+        <v>13.3385117636433</v>
       </c>
       <c r="I4" t="n">
-        <v>24.1294193845953</v>
+        <v>14.9954669583344</v>
       </c>
       <c r="J4" t="n">
-        <v>14.3628166636085</v>
+        <v>23.0754459953961</v>
       </c>
       <c r="K4" t="n">
-        <v>23.0227154960858</v>
+        <v>25.3490144954373</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18.7207697006194</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19.8819117101497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>21.4451230164606</v>
+        <v>18.4711140395028</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4163303957069</v>
+        <v>18.1090533883872</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5040080566363</v>
+        <v>17.7593881798792</v>
       </c>
       <c r="E5" t="n">
-        <v>16.8545076789663</v>
+        <v>17.2828391713425</v>
       </c>
       <c r="F5" t="n">
-        <v>17.7368171252981</v>
+        <v>17.4283054980536</v>
       </c>
       <c r="G5" t="n">
-        <v>17.8784360000412</v>
+        <v>18.23366990254</v>
       </c>
       <c r="H5" t="n">
-        <v>15.227750506986</v>
+        <v>18.7527682366955</v>
       </c>
       <c r="I5" t="n">
-        <v>19.4495652565364</v>
+        <v>19.9018755918675</v>
       </c>
       <c r="J5" t="n">
-        <v>16.5194412343168</v>
+        <v>18.1156317800097</v>
       </c>
       <c r="K5" t="n">
-        <v>21.0301245902737</v>
+        <v>18.8061689048191</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18.7296533607335</v>
+      </c>
+      <c r="M5" t="n">
+        <v>18.7631920453211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>16.6325728512752</v>
+        <v>25.8210813552222</v>
       </c>
       <c r="C6" t="n">
-        <v>20.2204631741621</v>
+        <v>28.6687645878041</v>
       </c>
       <c r="D6" t="n">
-        <v>17.2485012354676</v>
+        <v>28.2405220667589</v>
       </c>
       <c r="E6" t="n">
-        <v>13.9409754308608</v>
+        <v>28.1341163074923</v>
       </c>
       <c r="F6" t="n">
-        <v>19.1548710587013</v>
+        <v>26.7831696488847</v>
       </c>
       <c r="G6" t="n">
-        <v>20.7305675605826</v>
+        <v>27.1533761976075</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0524392780909</v>
+        <v>31.8883460760912</v>
       </c>
       <c r="I6" t="n">
-        <v>15.035136175909</v>
+        <v>30.27503644968</v>
       </c>
       <c r="J6" t="n">
-        <v>18.5126524199236</v>
+        <v>26.9055230286109</v>
       </c>
       <c r="K6" t="n">
-        <v>15.4181345130046</v>
+        <v>24.9631171634748</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23.7822817741879</v>
+      </c>
+      <c r="M6" t="n">
+        <v>23.199420167316</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_few_mean.xlsx
+++ b/xlsx/country_comparison/split_few_mean.xlsx
@@ -444,7 +444,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>17.4751101420005</v>
+        <v>17.4778628081766</v>
       </c>
       <c r="C2" t="n">
         <v>18.6743117629875</v>
@@ -471,13 +471,13 @@
         <v>16.8268444476372</v>
       </c>
       <c r="K2" t="n">
-        <v>13.9270974176023</v>
+        <v>13.9286135866664</v>
       </c>
       <c r="L2" t="n">
         <v>20.9468538366264</v>
       </c>
       <c r="M2" t="n">
-        <v>17.2982665049628</v>
+        <v>17.3020839614069</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>18.6865085699013</v>
+        <v>18.6864511804753</v>
       </c>
       <c r="C3" t="n">
         <v>17.3252977992075</v>
@@ -512,13 +512,13 @@
         <v>15.0765547483462</v>
       </c>
       <c r="K3" t="n">
-        <v>16.9546020186665</v>
+        <v>16.9554638876458</v>
       </c>
       <c r="L3" t="n">
         <v>17.8204413278329</v>
       </c>
       <c r="M3" t="n">
-        <v>20.8572095722504</v>
+        <v>20.8587820982446</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>19.5461858933732</v>
+        <v>19.5452760393505</v>
       </c>
       <c r="C4" t="n">
         <v>17.2225724616136</v>
@@ -553,13 +553,13 @@
         <v>23.0754459953961</v>
       </c>
       <c r="K4" t="n">
-        <v>25.3490144954373</v>
+        <v>25.3385372031742</v>
       </c>
       <c r="L4" t="n">
         <v>18.7207697006194</v>
       </c>
       <c r="M4" t="n">
-        <v>19.8819117101497</v>
+        <v>19.8837915557999</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>18.4711140395028</v>
+        <v>18.4727295355144</v>
       </c>
       <c r="C5" t="n">
         <v>18.1090533883872</v>
@@ -594,13 +594,13 @@
         <v>18.1156317800097</v>
       </c>
       <c r="K5" t="n">
-        <v>18.8061689048191</v>
+        <v>18.8097519849247</v>
       </c>
       <c r="L5" t="n">
         <v>18.7296533607335</v>
       </c>
       <c r="M5" t="n">
-        <v>18.7631920453211</v>
+        <v>18.7575959940119</v>
       </c>
     </row>
     <row r="6">
@@ -608,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>25.8210813552222</v>
+        <v>25.8176804364833</v>
       </c>
       <c r="C6" t="n">
         <v>28.6687645878041</v>
@@ -635,13 +635,13 @@
         <v>26.9055230286109</v>
       </c>
       <c r="K6" t="n">
-        <v>24.9631171634748</v>
+        <v>24.9676333375889</v>
       </c>
       <c r="L6" t="n">
         <v>23.7822817741879</v>
       </c>
       <c r="M6" t="n">
-        <v>23.199420167316</v>
+        <v>23.1977463905367</v>
       </c>
     </row>
   </sheetData>
